--- a/Tools/Tables/MaterialTable.xlsx
+++ b/Tools/Tables/MaterialTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winter\Desktop\BuildingSystem\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BuildingSystem\Tools\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9788043-22E5-4274-A50D-BE9A6F13D80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126EEE66-824B-4472-B284-5B909E76D898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="3420" windowWidth="29400" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="2655" windowWidth="32190" windowHeight="17265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="1" r:id="rId1"/>
@@ -451,15 +451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,6 +467,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -957,13 +957,13 @@
     </row>
     <row r="9" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
@@ -983,9 +983,9 @@
     </row>
     <row r="10" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1005,9 +1005,9 @@
     </row>
     <row r="11" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="12" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1053,9 +1053,9 @@
     </row>
     <row r="13" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="18"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
@@ -1075,9 +1075,9 @@
     </row>
     <row r="14" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="20" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1223,9 +1223,9 @@
     </row>
     <row r="21" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="5" t="s">
         <v>29</v>
       </c>
@@ -1243,9 +1243,9 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="5" t="s">
         <v>30</v>
       </c>
@@ -1285,13 +1285,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="5" t="s">
         <v>14</v>
       </c>
@@ -1309,9 +1309,9 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="5" t="s">
         <v>33</v>
       </c>
@@ -1329,9 +1329,9 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="5" t="s">
         <v>34</v>
       </c>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="5" t="s">
         <v>14</v>
       </c>
@@ -1395,9 +1395,9 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="5" t="s">
         <v>38</v>
       </c>
@@ -1415,9 +1415,9 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="5" t="s">
         <v>39</v>
       </c>
@@ -1435,9 +1435,9 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1455,9 +1455,9 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="5" t="s">
         <v>41</v>
       </c>
@@ -3851,12 +3851,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
     <mergeCell ref="D28:D32"/>
@@ -3866,6 +3860,12 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3875,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81AEE15-75BD-4427-A913-E1C9FC07829A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3959,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
       <c r="D5" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3976,16 +3976,84 @@
         <v>1</v>
       </c>
       <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
         <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2</v>
       </c>
       <c r="E6" s="10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
